--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4BB0BB-C555-43B2-8970-31454B1E468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE194D17-6AB7-42F9-B76D-924C334CE91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="11" spans="4:10" ht="81" customHeight="1">
       <c r="D11" s="21" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>87</v>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE194D17-6AB7-42F9-B76D-924C334CE91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EE043A-395B-4F51-8148-2FF17EADFB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>Resource Name</t>
   </si>
@@ -315,24 +315,41 @@
     <t>Stuck with admin's other control flow and validation or verification has to be done or not</t>
   </si>
   <si>
+    <t>Exploration on Web API</t>
+  </si>
+  <si>
     <t>Prototype for home page -  2 hours
 Acceptance criteria for Admin and HR - 1 hour
-Meeting with Raffi - 1 hour
+Meeting with Raffi - 1.5 hour
 Team discussion - 2 hours</t>
   </si>
   <si>
+    <t>Practice with Balsamiq.</t>
+  </si>
+  <si>
     <t>Exploration on WPI</t>
   </si>
   <si>
     <t>Create prototype for view the created Profile - 2hrs
-Meeting with rafi - 1hr
+Meeting with rafi - 1.5hr
 Discussion with Team about Prototype and admin user story - 3hrs</t>
   </si>
   <si>
     <t xml:space="preserve">               -</t>
   </si>
   <si>
-    <t>Practice with Balsamiq.</t>
+    <t>Exploration on Entity Framework</t>
+  </si>
+  <si>
+    <t>Exploration on web api</t>
+  </si>
+  <si>
+    <t>Created prototype for create profile page and home page - 2.5hrs
+Meeting with rafi - 1.5hr
+Discussion with Team about Prototype and admin user story - 3hrs</t>
+  </si>
+  <si>
+    <t>Doubt in share feature</t>
   </si>
   <si>
     <t>Entity Framework-Code first approach</t>
@@ -358,12 +375,12 @@
     <t>sharing profile</t>
   </si>
   <si>
-    <t>Exploration on Web API</t>
-  </si>
-  <si>
     <t>Meeting with rafi - 1hr. 
 Discussion with team member about prototype designing - 3hrs.
 Made changes in userstory (Creater,Searcher) &amp; Created Admin, HR Partner userstory - 2hrs.</t>
+  </si>
+  <si>
+    <t>Exploring prototype and Entityframework</t>
   </si>
   <si>
     <t>Made changes in workflow (Creater,Searcher) &amp; Created Admin, HR Partner workflow - 3hrs
@@ -376,15 +393,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No clarification in mail system
-</t>
+    <t>No clarification in mail system and
+share feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +482,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -583,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,6 +688,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1314,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1635,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,38 +1712,46 @@
       <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="18">
         <v>6</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="4:10" ht="81" customHeight="1">
       <c r="D11" s="21" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I11" s="18">
         <v>1</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="4:10">
@@ -1748,7 +1781,9 @@
       <c r="D13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="18"/>
@@ -1759,22 +1794,34 @@
       <c r="D14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="25"/>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="18">
+        <v>7</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
       <c r="D15" s="22" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19">
@@ -1793,7 +1840,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1804,8 +1851,8 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>94</v>
+      <c r="J16" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
@@ -1813,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1834,10 +1881,10 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="18">
@@ -1852,12 +1899,14 @@
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1866,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EE043A-395B-4F51-8148-2FF17EADFB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89058168-9D18-467D-9C26-4BEA00DBCC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>93</v>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EE043A-395B-4F51-8148-2FF17EADFB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACCD94A-CB07-45C4-86CC-34C18AC03A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>Resource Name</t>
   </si>
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>Exploration on Entity Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
+Discussion with team about Prototype and admin user story - 3 hrs
+Prototype for HR user creation - 30 mins
+Prototype for Profile searcher view - 1.5hr </t>
+  </si>
+  <si>
+    <t>sharing profile,status</t>
+  </si>
+  <si>
+    <t>Doubt in share feature and status feature</t>
   </si>
   <si>
     <t>Exploration on web api</t>
@@ -1660,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1722,7 +1734,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1784,21 +1796,31 @@
       <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1810,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
@@ -1818,10 +1840,10 @@
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19">
@@ -1840,7 +1862,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1852,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
@@ -1860,13 +1882,13 @@
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1884,29 +1906,33 @@
         <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1915,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACCD94A-CB07-45C4-86CC-34C18AC03A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA290BB2-D24D-4329-80DA-DDDB6B60DF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1896,7 +1896,9 @@
       <c r="I17" s="18">
         <v>1</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
       <c r="D18" s="21" t="s">

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE194D17-6AB7-42F9-B76D-924C334CE91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51148E3B-2739-4CE2-9AAC-AEA41B20316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>Resource Name</t>
   </si>
@@ -315,24 +315,41 @@
     <t>Stuck with admin's other control flow and validation or verification has to be done or not</t>
   </si>
   <si>
+    <t>Exploration on Web API</t>
+  </si>
+  <si>
     <t>Prototype for home page -  2 hours
 Acceptance criteria for Admin and HR - 1 hour
-Meeting with Raffi - 1 hour
+Meeting with Raffi - 1.5 hour
 Team discussion - 2 hours</t>
   </si>
   <si>
+    <t>Practice with Balsamiq.</t>
+  </si>
+  <si>
     <t>Exploration on WPI</t>
   </si>
   <si>
     <t>Create prototype for view the created Profile - 2hrs
-Meeting with rafi - 1hr
+Meeting with rafi - 1.5hr
 Discussion with Team about Prototype and admin user story - 3hrs</t>
   </si>
   <si>
     <t xml:space="preserve">               -</t>
   </si>
   <si>
-    <t>Practice with Balsamiq.</t>
+    <t>Exploration on Entity Framework</t>
+  </si>
+  <si>
+    <t>Exploration on web api</t>
+  </si>
+  <si>
+    <t>Created prototype for create profile page and home page - 2.5hrs
+Meeting with rafi - 1.5hr
+Discussion with Team about Prototype and admin user story - 3hrs</t>
+  </si>
+  <si>
+    <t>Doubt in share feature</t>
   </si>
   <si>
     <t>Entity Framework-Code first approach</t>
@@ -352,18 +369,21 @@
     <t>Practiced with Balsamiq.</t>
   </si>
   <si>
+    <t>Ramakrishna Reddy</t>
+  </si>
+  <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
   </si>
   <si>
-    <t>sharing profile</t>
-  </si>
-  <si>
-    <t>Exploration on Web API</t>
+    <t>sharing profile,Status</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
 Discussion with team member about prototype designing - 3hrs.
 Made changes in userstory (Creater,Searcher) &amp; Created Admin, HR Partner userstory - 2hrs.</t>
+  </si>
+  <si>
+    <t>Exploring prototype and Entityframework</t>
   </si>
   <si>
     <t>Made changes in workflow (Creater,Searcher) &amp; Created Admin, HR Partner workflow - 3hrs
@@ -376,15 +396,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No clarification in mail system
-</t>
+    <t>No clarification in mail system and
+share feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +485,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -583,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,6 +691,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1317,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1635,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,38 +1715,46 @@
       <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="18">
         <v>6</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="4:10" ht="81" customHeight="1">
       <c r="D11" s="21" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I11" s="18">
         <v>1</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="4:10">
@@ -1748,7 +1784,9 @@
       <c r="D13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="18"/>
@@ -1757,24 +1795,36 @@
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="18">
+        <v>7</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
       <c r="D15" s="22" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19">
@@ -1793,7 +1843,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1804,22 +1854,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>94</v>
+      <c r="J16" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1827,17 +1877,19 @@
       <c r="I17" s="18">
         <v>1</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
       <c r="D18" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="18">
@@ -1852,12 +1904,14 @@
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1866,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51148E3B-2739-4CE2-9AAC-AEA41B20316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BF55D6-3E33-4681-9104-43B7D7EA95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Resource Name</t>
   </si>
@@ -341,6 +341,18 @@
     <t>Exploration on Entity Framework</t>
   </si>
   <si>
+    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
+Discussion with team about Prototype and admin user story - 3 hrs
+Prototype for HR user creation - 30 mins
+Prototype for Profile searcher view - 1.5hr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing profile,status </t>
+  </si>
+  <si>
+    <t>Doubt in share feature and status feature</t>
+  </si>
+  <si>
     <t>Exploration on web api</t>
   </si>
   <si>
@@ -369,13 +381,10 @@
     <t>Practiced with Balsamiq.</t>
   </si>
   <si>
-    <t>Ramakrishna Reddy</t>
-  </si>
-  <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
   </si>
   <si>
-    <t>sharing profile,Status</t>
+    <t>sharing profile</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
@@ -404,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,11 +494,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -608,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,9 +695,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,7 +1318,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1663,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,7 +1726,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1787,21 +1788,31 @@
       <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1813,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
@@ -1821,10 +1832,10 @@
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19">
@@ -1843,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1854,22 +1865,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>99</v>
+      <c r="J16" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1878,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
@@ -1889,29 +1900,33 @@
         <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1920,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51148E3B-2739-4CE2-9AAC-AEA41B20316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{369C9E1C-1496-4530-BE4E-31B2D375DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Resource Name</t>
   </si>
@@ -341,6 +341,18 @@
     <t>Exploration on Entity Framework</t>
   </si>
   <si>
+    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
+Discussion with team about Prototype and admin user story - 3 hrs
+Prototype for HR user creation - 30 mins
+Prototype for Profile searcher view - 1.5hr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing profile,status </t>
+  </si>
+  <si>
+    <t>Doubt in share feature and status feature</t>
+  </si>
+  <si>
     <t>Exploration on web api</t>
   </si>
   <si>
@@ -369,13 +381,10 @@
     <t>Practiced with Balsamiq.</t>
   </si>
   <si>
-    <t>Ramakrishna Reddy</t>
-  </si>
-  <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
   </si>
   <si>
-    <t>sharing profile,Status</t>
+    <t>sharing profile</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
@@ -404,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,11 +494,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -608,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,9 +695,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,7 +1318,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1663,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,7 +1726,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1787,21 +1788,31 @@
       <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1813,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
@@ -1821,10 +1832,10 @@
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19">
@@ -1843,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1854,22 +1865,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>99</v>
+      <c r="J16" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1878,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
@@ -1889,29 +1900,33 @@
         <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1920,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BF55D6-3E33-4681-9104-43B7D7EA95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C55459A-391F-4B9A-B873-C5EC9305CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
   <si>
     <t>Resource Name</t>
   </si>
@@ -341,18 +341,6 @@
     <t>Exploration on Entity Framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
-Discussion with team about Prototype and admin user story - 3 hrs
-Prototype for HR user creation - 30 mins
-Prototype for Profile searcher view - 1.5hr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharing profile,status </t>
-  </si>
-  <si>
-    <t>Doubt in share feature and status feature</t>
-  </si>
-  <si>
     <t>Exploration on web api</t>
   </si>
   <si>
@@ -364,12 +352,18 @@
     <t>Doubt in share feature</t>
   </si>
   <si>
+    <t>Kishore Kumar A N</t>
+  </si>
+  <si>
     <t>Entity Framework-Code first approach</t>
   </si>
   <si>
     <t>Prototypes for Change Password and My profile-2hrs
 Meeting with Rafi-1hr
 Meeting with Team Regarding Work assigning-2hrs</t>
+  </si>
+  <si>
+    <t>Practiced with Balsamiq.</t>
   </si>
   <si>
     <t>Prototype for Login page -  30 mins
@@ -378,13 +372,13 @@
 Team discussion - 2.5 hours</t>
   </si>
   <si>
-    <t>Practiced with Balsamiq.</t>
+    <t>Ramakrishna Reddy</t>
   </si>
   <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
   </si>
   <si>
-    <t>sharing profile</t>
+    <t>sharing profile,Status</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
@@ -413,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +490,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -608,11 +607,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -696,6 +704,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1335,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1664,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,7 +1743,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1788,31 +1805,21 @@
       <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="18">
-        <v>6.5</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
       <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1824,27 +1831,31 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
       <c r="D15" s="22" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="H15" s="19">
         <v>5</v>
       </c>
       <c r="I15" s="18">
         <v>2</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="4:10" ht="98.25" customHeight="1">
       <c r="D16" s="21" t="s">
@@ -1854,7 +1865,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1865,22 +1876,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>102</v>
+      <c r="J16" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1889,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
@@ -1900,33 +1911,29 @@
         <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="28">
         <v>0.3125</v>
@@ -1935,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BF55D6-3E33-4681-9104-43B7D7EA95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0547B2-6290-4192-83CE-028D4603211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,16 +341,12 @@
     <t>Exploration on Entity Framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
-Discussion with team about Prototype and admin user story - 3 hrs
-Prototype for HR user creation - 30 mins
-Prototype for Profile searcher view - 1.5hr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharing profile,status </t>
-  </si>
-  <si>
-    <t>Doubt in share feature and status feature</t>
+    <t>Meeting with rafi - 1.5hr
+Created prototype for search profile view page and hr user creation page - 2hrs
+Discussion with Team about Prototype and admin user story - 3hrs</t>
+  </si>
+  <si>
+    <t>sharing profile,Status</t>
   </si>
   <si>
     <t>Exploration on web api</t>
@@ -364,12 +360,18 @@
     <t>Doubt in share feature</t>
   </si>
   <si>
+    <t>Kishore Kumar A N</t>
+  </si>
+  <si>
     <t>Entity Framework-Code first approach</t>
   </si>
   <si>
     <t>Prototypes for Change Password and My profile-2hrs
 Meeting with Rafi-1hr
 Meeting with Team Regarding Work assigning-2hrs</t>
+  </si>
+  <si>
+    <t>Practiced with Balsamiq.</t>
   </si>
   <si>
     <t>Prototype for Login page -  30 mins
@@ -378,13 +380,10 @@
 Team discussion - 2.5 hours</t>
   </si>
   <si>
-    <t>Practiced with Balsamiq.</t>
+    <t>Ramakrishna Reddy</t>
   </si>
   <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
-  </si>
-  <si>
-    <t>sharing profile</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
@@ -413,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +495,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -608,11 +612,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -696,6 +709,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1340,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1664,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,7 +1748,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1801,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
@@ -1809,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1824,12 +1846,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
       <c r="D15" s="22" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>99</v>
@@ -1837,14 +1859,18 @@
       <c r="F15" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="H15" s="19">
         <v>5</v>
       </c>
       <c r="I15" s="18">
         <v>2</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="32" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="4:10" ht="98.25" customHeight="1">
       <c r="D16" s="21" t="s">
@@ -1854,7 +1880,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1865,22 +1891,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>102</v>
+      <c r="J16" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1889,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
@@ -1902,18 +1928,14 @@
       <c r="F18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">

--- a/Process/Timesheet/PTW-TimeSheet 2.xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0547B2-6290-4192-83CE-028D4603211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F7FB19-3C25-4E09-AEBA-1244DFD27143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,12 +341,16 @@
     <t>Exploration on Entity Framework</t>
   </si>
   <si>
-    <t>Meeting with rafi - 1.5hr
-Created prototype for search profile view page and hr user creation page - 2hrs
-Discussion with Team about Prototype and admin user story - 3hrs</t>
-  </si>
-  <si>
-    <t>sharing profile,Status</t>
+    <t xml:space="preserve">Meeting with Rafi - 1.5 hrs
+Discussion with team about Prototype and admin user story - 3 hrs
+Prototype for HR user creation - 30 mins
+Prototype for Profile searcher view - 1.5hr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing profile,status </t>
+  </si>
+  <si>
+    <t>Doubt in share feature and status feature</t>
   </si>
   <si>
     <t>Exploration on web api</t>
@@ -360,18 +364,12 @@
     <t>Doubt in share feature</t>
   </si>
   <si>
-    <t>Kishore Kumar A N</t>
-  </si>
-  <si>
     <t>Entity Framework-Code first approach</t>
   </si>
   <si>
     <t>Prototypes for Change Password and My profile-2hrs
 Meeting with Rafi-1hr
 Meeting with Team Regarding Work assigning-2hrs</t>
-  </si>
-  <si>
-    <t>Practiced with Balsamiq.</t>
   </si>
   <si>
     <t>Prototype for Login page -  30 mins
@@ -380,10 +378,13 @@
 Team discussion - 2.5 hours</t>
   </si>
   <si>
-    <t>Ramakrishna Reddy</t>
+    <t>Practiced with Balsamiq.</t>
   </si>
   <si>
     <t>Created prototypes for profile searcher view and HR user creation-2hrs,Meeting with Rafi-1.5hrs,Meeting with team regarding work assingnig and prototype designing-3hrs</t>
+  </si>
+  <si>
+    <t>sharing profile</t>
   </si>
   <si>
     <t>Meeting with rafi - 1hr. 
@@ -412,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,11 +496,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,7 +505,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -612,20 +608,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -709,15 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,7 +1318,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40713B1-13A9-7A40-ACFC-25C6EF0C9259}">
   <dimension ref="D8:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,11 +1722,11 @@
       <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
@@ -1823,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="136.5" customHeight="1">
@@ -1831,10 +1809,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>69</v>
@@ -1846,12 +1824,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="153.75" customHeight="1">
       <c r="D15" s="22" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>99</v>
@@ -1859,18 +1837,14 @@
       <c r="F15" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>69</v>
-      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="19">
         <v>5</v>
       </c>
       <c r="I15" s="18">
         <v>2</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="4:10" ht="98.25" customHeight="1">
       <c r="D16" s="21" t="s">
@@ -1880,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>69</v>
@@ -1891,22 +1865,22 @@
       <c r="I16" s="18">
         <v>2</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>101</v>
+      <c r="J16" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="114" customHeight="1">
       <c r="D17" s="21" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="18">
         <v>6.5</v>
@@ -1915,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="114" customHeight="1">
@@ -1928,14 +1902,18 @@
       <c r="F18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="4:10" ht="121.5" customHeight="1">
       <c r="D19" s="21" t="s">
